--- a/GAUSSIAN-DISTRIBUTION.xlsx
+++ b/GAUSSIAN-DISTRIBUTION.xlsx
@@ -228,7 +228,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -244,7 +244,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -252,7 +252,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
@@ -268,7 +268,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="8">
@@ -276,7 +276,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>89.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="9">
@@ -292,7 +292,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>366.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="11">
@@ -300,7 +300,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>659.0</v>
+        <v>646.0</v>
       </c>
     </row>
     <row r="12">
@@ -308,7 +308,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>1196.0</v>
+        <v>1194.0</v>
       </c>
     </row>
     <row r="13">
@@ -316,7 +316,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>2070.0</v>
+        <v>2164.0</v>
       </c>
     </row>
     <row r="14">
@@ -324,7 +324,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>3509.0</v>
+        <v>3546.0</v>
       </c>
     </row>
     <row r="15">
@@ -332,7 +332,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>5663.0</v>
+        <v>5684.0</v>
       </c>
     </row>
     <row r="16">
@@ -340,7 +340,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>8696.0</v>
+        <v>8761.0</v>
       </c>
     </row>
     <row r="17">
@@ -348,7 +348,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>13122.0</v>
+        <v>12982.0</v>
       </c>
     </row>
     <row r="18">
@@ -356,7 +356,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>18836.0</v>
+        <v>18983.0</v>
       </c>
     </row>
     <row r="19">
@@ -364,7 +364,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>26262.0</v>
+        <v>25878.0</v>
       </c>
     </row>
     <row r="20">
@@ -372,7 +372,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>34200.0</v>
+        <v>34324.0</v>
       </c>
     </row>
     <row r="21">
@@ -380,7 +380,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>43537.0</v>
+        <v>43281.0</v>
       </c>
     </row>
     <row r="22">
@@ -388,7 +388,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>53257.0</v>
+        <v>53240.0</v>
       </c>
     </row>
     <row r="23">
@@ -396,7 +396,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>62388.0</v>
+        <v>62257.0</v>
       </c>
     </row>
     <row r="24">
@@ -404,7 +404,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>70046.0</v>
+        <v>70116.0</v>
       </c>
     </row>
     <row r="25">
@@ -412,7 +412,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>76518.0</v>
+        <v>76568.0</v>
       </c>
     </row>
     <row r="26">
@@ -420,7 +420,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>79411.0</v>
+        <v>79540.0</v>
       </c>
     </row>
     <row r="27">
@@ -428,7 +428,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>79256.0</v>
+        <v>79347.0</v>
       </c>
     </row>
     <row r="28">
@@ -436,7 +436,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>76402.0</v>
+        <v>75719.0</v>
       </c>
     </row>
     <row r="29">
@@ -444,7 +444,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>70141.0</v>
+        <v>70483.0</v>
       </c>
     </row>
     <row r="30">
@@ -452,7 +452,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>62536.0</v>
+        <v>62603.0</v>
       </c>
     </row>
     <row r="31">
@@ -460,7 +460,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>53271.0</v>
+        <v>53130.0</v>
       </c>
     </row>
     <row r="32">
@@ -468,7 +468,7 @@
         <v>32</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>43249.0</v>
+        <v>43678.0</v>
       </c>
     </row>
     <row r="33">
@@ -476,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>34331.0</v>
+        <v>34114.0</v>
       </c>
     </row>
     <row r="34">
@@ -484,7 +484,7 @@
         <v>34</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>25929.0</v>
+        <v>25981.0</v>
       </c>
     </row>
     <row r="35">
@@ -492,7 +492,7 @@
         <v>35</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>18697.0</v>
+        <v>18830.0</v>
       </c>
     </row>
     <row r="36">
@@ -500,7 +500,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>13132.0</v>
+        <v>13471.0</v>
       </c>
     </row>
     <row r="37">
@@ -508,7 +508,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>8914.0</v>
+        <v>8931.0</v>
       </c>
     </row>
     <row r="38">
@@ -516,7 +516,7 @@
         <v>38</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>5651.0</v>
+        <v>5811.0</v>
       </c>
     </row>
     <row r="39">
@@ -524,7 +524,7 @@
         <v>39</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>3564.0</v>
+        <v>3519.0</v>
       </c>
     </row>
     <row r="40">
@@ -532,7 +532,7 @@
         <v>40</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>2268.0</v>
+        <v>2039.0</v>
       </c>
     </row>
     <row r="41">
@@ -540,7 +540,7 @@
         <v>41</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>1218.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="42">
@@ -548,7 +548,7 @@
         <v>42</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>698.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="43">
@@ -556,7 +556,7 @@
         <v>43</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>331.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="44">
@@ -564,7 +564,7 @@
         <v>44</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>168.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="45">
@@ -572,7 +572,7 @@
         <v>45</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>74.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="46">
@@ -580,7 +580,7 @@
         <v>46</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="47">
@@ -588,7 +588,7 @@
         <v>47</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="48">
@@ -596,7 +596,7 @@
         <v>48</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -604,7 +604,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -612,7 +612,7 @@
         <v>50</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
